--- a/CodingTest_Timesheet.xlsx
+++ b/CodingTest_Timesheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DAE\3DAE\Internship\Nitro Games\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DAE\3DAE\Internship\Nitro Games\SecretOfMana\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,12 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Subject</t>
-  </si>
-  <si>
-    <t>Notes</t>
   </si>
   <si>
     <t>Date</t>
@@ -58,10 +55,23 @@
     <t>Study given structure + UML attempt</t>
   </si>
   <si>
-    <t>Took me a while to figure it out because I didn’t fully understand the VisualCharacter purpose yet but I think I got it now</t>
-  </si>
-  <si>
     <t>Created Singleton class and GameManager</t>
+  </si>
+  <si>
+    <t>22/12/2017</t>
+  </si>
+  <si>
+    <t>Player Moving and rotating</t>
+  </si>
+  <si>
+    <t>Switching between players</t>
+  </si>
+  <si>
+    <t>Studying guidelines + new UML attempt
+Restructructering some parts</t>
+  </si>
+  <si>
+    <t>Creating all the characters</t>
   </si>
 </sst>
 </file>
@@ -85,7 +95,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -95,6 +105,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -111,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -127,6 +143,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,24 +477,22 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
       </c>
       <c r="C2" s="4">
         <v>1.0416666666666666E-2</v>
@@ -483,15 +500,15 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="4">
-        <v>2.0833333333333332E-2</v>
+        <v>3.125E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4">
         <v>1.3888888888888888E-2</v>
@@ -499,24 +516,56 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="4">
         <v>4.8611111111111112E-2</v>
       </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="4">
         <v>7.2916666666666671E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2.4305555555555556E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1.0416666666666666E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1.3888888888888888E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1.7361111111111112E-2</v>
       </c>
     </row>
   </sheetData>

--- a/CodingTest_Timesheet.xlsx
+++ b/CodingTest_Timesheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Subject</t>
   </si>
@@ -72,6 +72,16 @@
   </si>
   <si>
     <t>Creating all the characters</t>
+  </si>
+  <si>
+    <t>23/12/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic Item - weapon and inventory </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proper character switching and
+inactive characters follow the active character </t>
   </si>
 </sst>
 </file>
@@ -127,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -147,6 +157,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,6 +516,10 @@
       <c r="C3" s="4">
         <v>3.125E-2</v>
       </c>
+      <c r="D3" s="7">
+        <f>SUM(C3:C15)</f>
+        <v>0.27083333333333337</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -565,7 +580,26 @@
         <v>12</v>
       </c>
       <c r="C12" s="4">
-        <v>1.7361111111111112E-2</v>
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1.3888888888888888E-2</v>
       </c>
     </row>
   </sheetData>

--- a/CodingTest_Timesheet.xlsx
+++ b/CodingTest_Timesheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Subject</t>
   </si>
@@ -82,6 +82,20 @@
   <si>
     <t xml:space="preserve">Proper character switching and
 inactive characters follow the active character </t>
+  </si>
+  <si>
+    <t>24/12/2017</t>
+  </si>
+  <si>
+    <t>Create enemy and spawning them</t>
+  </si>
+  <si>
+    <t>Basic level design - Enemy Field of view
+Follow the active player</t>
+  </si>
+  <si>
+    <t>Enemy attacks players 
+UI System + characterPanel + simple InventoryPanel</t>
   </si>
 </sst>
 </file>
@@ -105,7 +119,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,12 +129,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -137,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -153,9 +161,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -472,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,7 +501,6 @@
       <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -508,6 +512,7 @@
       <c r="C2" s="4">
         <v>1.0416666666666666E-2</v>
       </c>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -516,10 +521,7 @@
       <c r="C3" s="4">
         <v>3.125E-2</v>
       </c>
-      <c r="D3" s="7">
-        <f>SUM(C3:C15)</f>
-        <v>0.27083333333333337</v>
-      </c>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -547,6 +549,7 @@
       <c r="C7" s="4">
         <v>7.2916666666666671E-2</v>
       </c>
+      <c r="D7" s="6"/>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -600,6 +603,33 @@
       </c>
       <c r="C15" s="4">
         <v>1.3888888888888888E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="4">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="4">
+        <v>7.2916666666666671E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="4">
+        <v>9.0277777777777776E-2</v>
       </c>
     </row>
   </sheetData>

--- a/CodingTest_Timesheet.xlsx
+++ b/CodingTest_Timesheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Subject</t>
   </si>
@@ -96,6 +96,18 @@
   <si>
     <t>Enemy attacks players 
 UI System + characterPanel + simple InventoryPanel</t>
+  </si>
+  <si>
+    <t>25/12/2017</t>
+  </si>
+  <si>
+    <t>HUD - Display current health of players</t>
+  </si>
+  <si>
+    <t>Equipping and unequipping + InventoryPanel</t>
+  </si>
+  <si>
+    <t>Attacking enemies with Sword</t>
   </si>
 </sst>
 </file>
@@ -477,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,6 +644,33 @@
         <v>9.0277777777777776E-2</v>
       </c>
     </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="4">
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="4">
+        <v>4.8611111111111112E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="4">
+        <v>3.4722222222222224E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/CodingTest_Timesheet.xlsx
+++ b/CodingTest_Timesheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Subject</t>
   </si>
@@ -108,6 +108,23 @@
   </si>
   <si>
     <t>Attacking enemies with Sword</t>
+  </si>
+  <si>
+    <t>26/12/2017</t>
+  </si>
+  <si>
+    <t>Added Armor - Equip armor and weapons in 
+InventoryPanel by clicking on them</t>
+  </si>
+  <si>
+    <t>New level design - Small puzzle functionality</t>
+  </si>
+  <si>
+    <t>Implemented Bow/Staff using raycast -
+Aim at players with staff to heal them</t>
+  </si>
+  <si>
+    <t>Adding GameOver / Game Complete state</t>
   </si>
 </sst>
 </file>
@@ -489,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,6 +688,41 @@
         <v>3.4722222222222224E-2</v>
       </c>
     </row>
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="4">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="4">
+        <v>5.2083333333333336E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="4">
+        <v>2.4305555555555556E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1.7361111111111112E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
